--- a/Temlpates/ACMO/ACMO_templates.xlsx
+++ b/Temlpates/ACMO/ACMO_templates.xlsx
@@ -1244,16 +1244,16 @@
     <t>Unique hash assigned when rotational analysis DOME files are loaded into ACE database</t>
   </si>
   <si>
-    <t>EPCM_S</t>
-  </si>
-  <si>
-    <t>ESCM_S</t>
-  </si>
-  <si>
-    <t>Total season transpiration</t>
-  </si>
-  <si>
-    <t>Total season soil evaporation</t>
+    <t>EPCP_S</t>
+  </si>
+  <si>
+    <t>ESCP_S</t>
+  </si>
+  <si>
+    <t>Transpiration, cumulative from planting to harvest</t>
+  </si>
+  <si>
+    <t>Evaporation,soil, cumulative from planting to harvest</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2408,10 @@
   <dimension ref="A1:BF82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="BE1" sqref="BE1:BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9975,8 +9975,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -10682,7 +10682,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.8" thickBot="1">
+    <row r="57" spans="1:4" ht="27" thickBot="1">
       <c r="A57" s="55" t="s">
         <v>386</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.8" thickBot="1">
+    <row r="58" spans="1:4" ht="27" thickBot="1">
       <c r="A58" s="55" t="s">
         <v>387</v>
       </c>
